--- a/Discount Scenario Planning Tool.xlsx
+++ b/Discount Scenario Planning Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vishal_code\DataAnalytics\CodeBasics\2-Excel\Round--2\8-Scenario_Planning_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFE58B1-BE31-4FF6-BD44-7148CAFBD137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC9B052-196F-4D9E-A28E-1C10ECF62D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,22 +185,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Avenir Next LT Pro"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Avenir Next LT Pro"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
       <name val="Avenir Next LT Pro"/>
       <family val="2"/>
     </font>
@@ -223,8 +209,21 @@
       <name val="Avenir Next LT Pro Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Avenir Next LT Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Avenir Next LT Pro Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,30 +238,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -370,6 +363,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -379,38 +381,38 @@
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -711,7 +713,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -724,42 +726,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>45571</v>
       </c>
     </row>
@@ -770,158 +772,158 @@
       <c r="A11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
-      <c r="B12" s="17">
+      <c r="B12" s="14">
         <v>0.1</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="15">
         <v>0.3</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="16">
         <v>6</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="16">
         <v>100000</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>100000</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>50000</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>25000</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <f>$D$12 * B19</f>
         <v>600000</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <f>$D$12 * C19</f>
         <v>300000</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <f>$D$12 * D19</f>
         <v>150000</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <f>B20 * $B$12</f>
         <v>60000</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <f>C20 * $B$12</f>
         <v>30000</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <f>D20 * $B$12</f>
         <v>15000</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <f>B20 - B21</f>
         <v>540000</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <f t="shared" ref="C22:D22" si="0">C20 - C21</f>
         <v>270000</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <f t="shared" si="0"/>
         <v>135000</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <f>B22 * $C$12</f>
         <v>162000</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <f>C22 * $C$12</f>
         <v>81000</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <f>D22 * $C$12</f>
         <v>40500</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <f>B22 - B23</f>
         <v>378000</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <f t="shared" ref="C24:D24" si="1">C22 - C23</f>
         <v>189000</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <f t="shared" si="1"/>
         <v>94500</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="24.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <f>B24-$E$12</f>
         <v>278000</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <f>C24-$E$12</f>
         <v>89000</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <f>D24-$E$12</f>
         <v>-5500</v>
       </c>
